--- a/ödev6-sql/sql banka ödev.xlsx
+++ b/ödev6-sql/sql banka ödev.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\javacampclone\ödev6-sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2BB8DE-574A-4D75-A377-9CAEE927C598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84B3773-32A3-4E17-B20E-CD8A498DAADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,36 +163,12 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -211,7 +187,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,59 +356,74 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -435,33 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -804,16 +774,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
@@ -821,155 +792,140 @@
     <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="E1" s="32" t="s">
+      <c r="B1" s="21"/>
+      <c r="D1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="33"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="E2" s="19" t="s">
+      <c r="B2" s="4"/>
+      <c r="D2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="E3" s="21" t="s">
+      <c r="B3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="E4" s="21" t="s">
+      <c r="B4" s="8"/>
+      <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="24"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="B9" s="11"/>
+      <c r="D9" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B10"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="B10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B11"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="B11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="B12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="B13" s="19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
